--- a/dataDrivenWorkero.xlsx
+++ b/dataDrivenWorkero.xlsx
@@ -3,7 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="OfficeContactInfo" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="SupplierLoginCredentials" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="OfficeAmenitiesAndServices" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="OfficeHouseRules" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="OfficeSpaceProducts" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,17 +15,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+  <si>
+    <t>PARKING_PRICE</t>
+  </si>
+  <si>
+    <t>EMAIL_ADDRESS</t>
+  </si>
   <si>
     <t>OFFICE_NAME</t>
   </si>
   <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
     <t>VAT_NUMBER</t>
   </si>
   <si>
+    <t>andrei.raschitor@expertnetwork.ro</t>
+  </si>
+  <si>
     <t>DESCRIPTION</t>
   </si>
   <si>
+    <t>secret</t>
+  </si>
+  <si>
     <t>STREET_ADDRESS</t>
   </si>
   <si>
@@ -73,6 +92,9 @@
     <t>Romania</t>
   </si>
   <si>
+    <t>COFFEE_PRICE</t>
+  </si>
+  <si>
     <t>ing@office.com</t>
   </si>
   <si>
@@ -82,15 +104,30 @@
     <t>dorina@ing.com</t>
   </si>
   <si>
+    <t>COPY_PRICE</t>
+  </si>
+  <si>
+    <t>PRINTING_PRICE</t>
+  </si>
+  <si>
     <t>Dupa pod la alexandru pe stanga</t>
   </si>
   <si>
+    <t>SOFTDRINKS_PRICE</t>
+  </si>
+  <si>
     <t>BCR</t>
   </si>
   <si>
+    <t>PACKAGE_HALF</t>
+  </si>
+  <si>
     <t>vat 15%</t>
   </si>
   <si>
+    <t>PACKAGE_FULL</t>
+  </si>
+  <si>
     <t>tudor Arghezi</t>
   </si>
   <si>
@@ -113,6 +150,12 @@
   </si>
   <si>
     <t>Aproape de piata</t>
+  </si>
+  <si>
+    <t>HOUSERULE_NAME</t>
+  </si>
+  <si>
+    <t>Selenium -Chemical Element</t>
   </si>
 </sst>
 </file>
@@ -165,6 +208,22 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
@@ -188,128 +247,257 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1">
         <v>6600.0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L2" s="1">
         <v>7.39272634E8</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G3" s="1">
         <v>27001.0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L3" s="1">
         <v>9.1841541E7</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="35.43"/>
+    <col customWidth="1" min="2" max="2" width="29.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="24.43"/>
+    <col customWidth="1" min="2" max="2" width="23.29"/>
+    <col customWidth="1" min="3" max="3" width="22.0"/>
+    <col customWidth="1" min="4" max="4" width="23.86"/>
+    <col customWidth="1" min="5" max="5" width="29.14"/>
+    <col customWidth="1" min="6" max="6" width="23.0"/>
+    <col customWidth="1" min="7" max="7" width="22.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>400.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>109.0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>23.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="34.14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/dataDrivenWorkero.xlsx
+++ b/dataDrivenWorkero.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workeroAutomationProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="4"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="OfficeContactInfo" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="SupplierLoginCredentials" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="OfficeAmenitiesAndServices" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="OfficeHouseRules" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="OfficeSpaceProducts" sheetId="5" r:id="rId7"/>
+    <sheet name="OfficeContactInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="SupplierLoginCredentials" sheetId="2" r:id="rId2"/>
+    <sheet name="OfficeAmenitiesAndServices" sheetId="3" r:id="rId3"/>
+    <sheet name="OfficeHouseRules" sheetId="4" r:id="rId4"/>
+    <sheet name="OfficeSpaceProducts" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>PARKING_PRICE</t>
   </si>
@@ -156,26 +164,41 @@
   </si>
   <si>
     <t>Selenium -Chemical Element</t>
+  </si>
+  <si>
+    <t>DESKS</t>
+  </si>
+  <si>
+    <t>PRIVATE</t>
+  </si>
+  <si>
+    <t>MEETING_ROOM</t>
+  </si>
+  <si>
+    <t>EVENT_ROOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -184,68 +207,350 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.86"/>
-    <col customWidth="1" min="2" max="2" width="18.86"/>
-    <col customWidth="1" min="3" max="3" width="29.86"/>
-    <col customWidth="1" min="4" max="4" width="28.29"/>
-    <col customWidth="1" min="5" max="6" width="17.86"/>
-    <col customWidth="1" min="7" max="7" width="23.71"/>
-    <col customWidth="1" min="8" max="8" width="18.71"/>
-    <col customWidth="1" min="9" max="9" width="20.57"/>
-    <col customWidth="1" min="10" max="10" width="21.14"/>
-    <col customWidth="1" min="11" max="11" width="25.86"/>
-    <col customWidth="1" min="12" max="12" width="21.14"/>
-    <col customWidth="1" min="13" max="13" width="30.43"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" customWidth="1"/>
+    <col min="13" max="13" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -286,7 +591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -306,7 +611,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="1">
-        <v>6600.0</v>
+        <v>6600</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>24</v>
@@ -321,13 +626,13 @@
         <v>28</v>
       </c>
       <c r="L2" s="1">
-        <v>7.39272634E8</v>
+        <v>739272634</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -347,7 +652,7 @@
         <v>39</v>
       </c>
       <c r="G3" s="1">
-        <v>27001.0</v>
+        <v>27001</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>40</v>
@@ -362,29 +667,30 @@
         <v>43</v>
       </c>
       <c r="L3" s="1">
-        <v>9.1841541E7</v>
+        <v>91841541</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="35.43"/>
-    <col customWidth="1" min="2" max="2" width="29.57"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -392,7 +698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -401,27 +707,28 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.43"/>
-    <col customWidth="1" min="2" max="2" width="23.29"/>
-    <col customWidth="1" min="3" max="3" width="22.0"/>
-    <col customWidth="1" min="4" max="4" width="23.86"/>
-    <col customWidth="1" min="5" max="5" width="29.14"/>
-    <col customWidth="1" min="6" max="6" width="23.0"/>
-    <col customWidth="1" min="7" max="7" width="22.71"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,60 +751,89 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="B2" s="1">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="C2" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="D2" s="1">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="34.14"/>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dataDrivenWorkero.xlsx
+++ b/dataDrivenWorkero.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workeroAutomationProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workeroAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="OfficeContactInfo" sheetId="1" r:id="rId1"/>
-    <sheet name="SupplierLoginCredentials" sheetId="2" r:id="rId2"/>
+    <sheet name="SupplierLoginCredentials" sheetId="2" r:id="rId1"/>
+    <sheet name="OfficeContactInfo" sheetId="1" r:id="rId2"/>
     <sheet name="OfficeAmenitiesAndServices" sheetId="3" r:id="rId3"/>
     <sheet name="OfficeHouseRules" sheetId="4" r:id="rId4"/>
     <sheet name="OfficeSpaceProducts" sheetId="5" r:id="rId5"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>PARKING_PRICE</t>
   </si>
@@ -85,9 +85,6 @@
     <t>VAT Number 25%</t>
   </si>
   <si>
-    <t>Ordinary Office</t>
-  </si>
-  <si>
     <t>Stradela plopii Albastri</t>
   </si>
   <si>
@@ -176,13 +173,19 @@
   </si>
   <si>
     <t>EVENT_ROOM</t>
+  </si>
+  <si>
+    <t>Second Office</t>
+  </si>
+  <si>
+    <t>First office</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -192,13 +195,37 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -213,9 +240,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,9 +562,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -550,44 +623,44 @@
     <col min="13" max="13" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -598,116 +671,84 @@
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="G2" s="1">
         <v>6600</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="L2" s="1">
         <v>739272634</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="G3" s="1">
         <v>27001</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="L3" s="1">
         <v>91841541</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -715,11 +756,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" customWidth="1"/>
@@ -728,27 +771,27 @@
     <col min="7" max="7" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
+      <c r="E1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -778,7 +821,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -786,14 +829,14 @@
     <col min="1" max="1" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>45</v>
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +846,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -814,24 +857,27 @@
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>200</v>
       </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
